--- a/Hexpod_spreadsheet_V1.2 (3).xlsx
+++ b/Hexpod_spreadsheet_V1.2 (3).xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adolf\Documents\GitHub\Blindbot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="0" windowWidth="1980" windowHeight="1170"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -339,7 +344,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -786,12 +791,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -846,7 +854,7 @@
                   <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.000008867730152</c:v>
+                  <c:v>44.602494018395177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -861,12 +869,17 @@
                   <c:v>38.97114317029974</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79.674332028380675</c:v>
+                  <c:v>80.465008092579737</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-53CB-4568-8008-5A34DF8E7025}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -894,7 +907,7 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92</c:v>
+                  <c:v>91.985987954387994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -909,12 +922,17 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.605621392230083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-53CB-4568-8008-5A34DF8E7025}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -942,7 +960,7 @@
                   <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.000008867730152</c:v>
+                  <c:v>47.383511668751922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -957,12 +975,17 @@
                   <c:v>-38.97114317029974</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-79.674332028380675</c:v>
+                  <c:v>-78.85938639082319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-53CB-4568-8008-5A34DF8E7025}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -990,7 +1013,7 @@
                   <c:v>-22.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-46.000008867730152</c:v>
+                  <c:v>-44.602494018395177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1005,12 +1028,17 @@
                   <c:v>-38.97114317029974</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-79.674332028380675</c:v>
+                  <c:v>-80.465008092579737</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-53CB-4568-8008-5A34DF8E7025}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
@@ -1038,7 +1066,7 @@
                   <c:v>-45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-92</c:v>
+                  <c:v>-91.985987954387994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1053,12 +1081,17 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-1.605621392230083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-53CB-4568-8008-5A34DF8E7025}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
@@ -1086,7 +1119,7 @@
                   <c:v>-22.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-46.000008867730152</c:v>
+                  <c:v>-47.383511668751922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1101,12 +1134,17 @@
                   <c:v>38.97114317029974</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79.674332028380675</c:v>
+                  <c:v>78.85938639082319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-53CB-4568-8008-5A34DF8E7025}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -1155,6 +1193,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-53CB-4568-8008-5A34DF8E7025}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1203,6 +1246,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-53CB-4568-8008-5A34DF8E7025}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1251,6 +1299,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-53CB-4568-8008-5A34DF8E7025}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1299,6 +1352,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-53CB-4568-8008-5A34DF8E7025}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1347,6 +1405,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-53CB-4568-8008-5A34DF8E7025}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1395,6 +1458,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-53CB-4568-8008-5A34DF8E7025}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1455,7 +1523,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1514,6 +1582,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF54-4ADE-A30B-15E506013154}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1534,7 +1607,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>46.999999999999979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1549,12 +1622,17 @@
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72</c:v>
+                  <c:v>72.000001249496052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AF54-4ADE-A30B-15E506013154}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1572,10 +1650,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>47</c:v>
+                  <c:v>46.999999999999979</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>47.013416273521436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1587,15 +1665,20 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>72</c:v>
+                  <c:v>72.000001249496052</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.4994710372538975E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AF54-4ADE-A30B-15E506013154}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1657,7 +1740,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1716,6 +1799,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB57-4CCC-9B14-340108747556}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1736,7 +1824,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>46.999999999999979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1751,12 +1839,17 @@
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72</c:v>
+                  <c:v>72.000001249527941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AB57-4CCC-9B14-340108747556}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1774,10 +1867,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>47</c:v>
+                  <c:v>46.999999999999979</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>47.013416444638935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1789,15 +1882,20 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>72</c:v>
+                  <c:v>72.000001249527941</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.4995348013590046E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AB57-4CCC-9B14-340108747556}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1859,7 +1957,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1918,6 +2016,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4EEF-4964-AE99-5F377DBDCF1F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1938,7 +2041,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>46.999999999999979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1953,12 +2056,17 @@
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72</c:v>
+                  <c:v>72.000001249559801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4EEF-4964-AE99-5F377DBDCF1F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1976,10 +2084,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>47</c:v>
+                  <c:v>46.999999999999979</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>47.013416615756341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1991,15 +2099,20 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>72</c:v>
+                  <c:v>72.000001249559801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.499598551253257E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4EEF-4964-AE99-5F377DBDCF1F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2061,7 +2174,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2120,6 +2233,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DAC6-49BE-9C25-7766FCD0B2EF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2140,7 +2258,7 @@
                   <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-47</c:v>
+                  <c:v>-46.999999999999979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2155,12 +2273,17 @@
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72</c:v>
+                  <c:v>72.000001249496052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DAC6-49BE-9C25-7766FCD0B2EF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2178,10 +2301,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-47</c:v>
+                  <c:v>-46.999999999999979</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-47</c:v>
+                  <c:v>-47.013416273521436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2193,15 +2316,20 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>72</c:v>
+                  <c:v>72.000001249496052</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.4994710372538975E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DAC6-49BE-9C25-7766FCD0B2EF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2263,7 +2391,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2322,6 +2450,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C1A-4AD6-93A6-F7224F1D3B1F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2342,7 +2475,7 @@
                   <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-47</c:v>
+                  <c:v>-46.999999999999979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2357,12 +2490,17 @@
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72</c:v>
+                  <c:v>72.000001249527941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8C1A-4AD6-93A6-F7224F1D3B1F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2380,10 +2518,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-47</c:v>
+                  <c:v>-46.999999999999979</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-47</c:v>
+                  <c:v>-47.013416444638935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2395,15 +2533,20 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>72</c:v>
+                  <c:v>72.000001249527941</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.4995348013590046E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8C1A-4AD6-93A6-F7224F1D3B1F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2465,7 +2608,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2524,6 +2667,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9555-487D-A0D9-EB38090A8F89}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2544,7 +2692,7 @@
                   <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-47</c:v>
+                  <c:v>-46.999999999999979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2559,12 +2707,17 @@
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72</c:v>
+                  <c:v>72.000001249559801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9555-487D-A0D9-EB38090A8F89}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2582,10 +2735,10 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-47</c:v>
+                  <c:v>-46.999999999999979</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-47</c:v>
+                  <c:v>-47.013416615756341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2597,15 +2750,20 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>72</c:v>
+                  <c:v>72.000001249559801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.499598551253257E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9555-487D-A0D9-EB38090A8F89}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2683,7 +2841,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="$R$37" max="30" noThreeD="1" page="10" val="15"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="$R$37" max="30" noThreeD="1" page="10" val="16"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2711,7 +2869,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noChangeAspect="1"/>
         </xdr:cNvGraphicFramePr>
@@ -2743,7 +2907,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Oval 55"/>
+        <xdr:cNvPr id="13" name="Oval 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2794,7 +2964,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2824,7 +3000,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2854,7 +3036,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2884,7 +3072,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2914,7 +3108,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name="Chart 17"/>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2944,7 +3144,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvPr id="19" name="Chart 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2981,11 +3187,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2993,6 +3202,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3022,11 +3237,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3034,6 +3252,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3063,11 +3287,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3075,6 +3302,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3104,11 +3337,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3116,6 +3352,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3145,11 +3387,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3157,6 +3402,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3186,11 +3437,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3198,6 +3452,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3227,11 +3487,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3239,6 +3502,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3292,7 +3561,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3325,9 +3594,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3360,6 +3646,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3539,38 +3842,38 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AG85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y40" sqref="Y40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.86328125" customWidth="1"/>
+    <col min="2" max="2" width="8.86328125" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" customWidth="1"/>
+    <col min="4" max="4" width="8.3984375" customWidth="1"/>
+    <col min="5" max="5" width="8.265625" customWidth="1"/>
+    <col min="6" max="6" width="7.86328125" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.86328125" customWidth="1"/>
+    <col min="9" max="9" width="6.73046875" customWidth="1"/>
+    <col min="10" max="10" width="7.86328125" customWidth="1"/>
+    <col min="11" max="11" width="6.3984375" customWidth="1"/>
+    <col min="12" max="12" width="8.59765625" customWidth="1"/>
+    <col min="13" max="13" width="7.73046875" customWidth="1"/>
+    <col min="14" max="14" width="7.86328125" customWidth="1"/>
+    <col min="15" max="15" width="7.73046875" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" customWidth="1"/>
-    <col min="24" max="24" width="13.28515625" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" customWidth="1"/>
+    <col min="18" max="18" width="11.265625" customWidth="1"/>
+    <col min="24" max="24" width="13.265625" customWidth="1"/>
+    <col min="26" max="26" width="15.1328125" customWidth="1"/>
     <col min="27" max="27" width="18" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>57</v>
       </c>
@@ -3609,7 +3912,7 @@
       <c r="AF1" s="80"/>
       <c r="AG1" s="80"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A2" s="56">
         <v>45</v>
       </c>
@@ -3667,7 +3970,7 @@
       <c r="AF2" s="12"/>
       <c r="AG2" s="80"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -3697,27 +4000,27 @@
       <c r="Q3" s="20"/>
       <c r="R3" s="33">
         <f t="shared" ref="R3:W3" si="0">AA31</f>
-        <v>1.2482645558975491E-5</v>
+        <v>-1.9571570786621635</v>
       </c>
       <c r="S3" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1.9571695560048994</v>
       </c>
       <c r="T3" s="33">
         <f t="shared" si="0"/>
-        <v>-1.2482645558975491E-5</v>
+        <v>-1.9571820333475642</v>
       </c>
       <c r="U3" s="33">
         <f t="shared" si="0"/>
-        <v>1.2482645530553782E-5</v>
+        <v>-1.9571570786621635</v>
       </c>
       <c r="V3" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1.957169556004871</v>
       </c>
       <c r="W3" s="33">
         <f t="shared" si="0"/>
-        <v>-1.2482645544764637E-5</v>
+        <v>-1.9571820333475358</v>
       </c>
       <c r="Y3" s="79"/>
       <c r="Z3" s="74" t="s">
@@ -3743,7 +4046,7 @@
       </c>
       <c r="AG3" s="80"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -3776,27 +4079,27 @@
       <c r="Q4" s="21"/>
       <c r="R4" s="36">
         <f t="shared" ref="R4:W4" si="1">AA30</f>
-        <v>0</v>
+        <v>-2.0454528737445798E-6</v>
       </c>
       <c r="S4" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2.0455050702139488E-6</v>
       </c>
       <c r="T4" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2.0455572240507536E-6</v>
       </c>
       <c r="U4" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2.0454528737445798E-6</v>
       </c>
       <c r="V4" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2.0455050702139488E-6</v>
       </c>
       <c r="W4" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2.0455572240507536E-6</v>
       </c>
       <c r="Y4" s="79"/>
       <c r="Z4" s="21" t="s">
@@ -3828,7 +4131,7 @@
       </c>
       <c r="AG4" s="80"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -3853,27 +4156,27 @@
       <c r="Q5" s="22"/>
       <c r="R5" s="39">
         <f t="shared" ref="R5:W5" si="2">AA29</f>
-        <v>0</v>
+        <v>-1.067633130584511E-2</v>
       </c>
       <c r="S5" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1.0676467476827156E-2</v>
       </c>
       <c r="T5" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1.0676603647738148E-2</v>
       </c>
       <c r="U5" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1.067633130584511E-2</v>
       </c>
       <c r="V5" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1.0676467476827156E-2</v>
       </c>
       <c r="W5" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1.0676603647738148E-2</v>
       </c>
       <c r="Y5" s="79"/>
       <c r="Z5" s="21" t="s">
@@ -3905,7 +4208,7 @@
       </c>
       <c r="AG5" s="80"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -3927,27 +4230,27 @@
       <c r="Q6" s="72"/>
       <c r="R6" s="60">
         <f t="shared" ref="R6:W6" si="3">(R3+90)/180*1800+600</f>
-        <v>1500.0001248264557</v>
+        <v>1480.4284292133784</v>
       </c>
       <c r="S6" s="60">
         <f t="shared" si="3"/>
-        <v>1500</v>
+        <v>1480.428304439951</v>
       </c>
       <c r="T6" s="60">
         <f t="shared" si="3"/>
-        <v>1499.9998751735443</v>
+        <v>1480.4281796665243</v>
       </c>
       <c r="U6" s="60">
         <f t="shared" si="3"/>
-        <v>1500.0001248264552</v>
+        <v>1480.4284292133784</v>
       </c>
       <c r="V6" s="60">
         <f t="shared" si="3"/>
-        <v>1500</v>
+        <v>1480.4283044399513</v>
       </c>
       <c r="W6" s="61">
         <f t="shared" si="3"/>
-        <v>1499.9998751735445</v>
+        <v>1480.4281796665246</v>
       </c>
       <c r="Y6" s="79"/>
       <c r="Z6" s="21" t="s">
@@ -3979,7 +4282,7 @@
       </c>
       <c r="AG6" s="80"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A7" s="23" t="s">
         <v>58</v>
       </c>
@@ -4002,27 +4305,27 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="51">
         <f t="shared" ref="R7:W7" si="4">(R4+90)/180*1800+600</f>
-        <v>1500</v>
+        <v>1499.9999795454712</v>
       </c>
       <c r="S7" s="51">
         <f t="shared" si="4"/>
-        <v>1500</v>
+        <v>1499.9999795449494</v>
       </c>
       <c r="T7" s="51">
         <f t="shared" si="4"/>
-        <v>1500</v>
+        <v>1499.9999795444278</v>
       </c>
       <c r="U7" s="51">
         <f t="shared" si="4"/>
-        <v>1500</v>
+        <v>1499.9999795454712</v>
       </c>
       <c r="V7" s="51">
         <f t="shared" si="4"/>
-        <v>1500</v>
+        <v>1499.9999795449494</v>
       </c>
       <c r="W7" s="52">
         <f t="shared" si="4"/>
-        <v>1500</v>
+        <v>1499.9999795444278</v>
       </c>
       <c r="Y7" s="79"/>
       <c r="Z7" s="21" t="s">
@@ -4054,7 +4357,7 @@
       </c>
       <c r="AG7" s="80"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A8" s="24" t="s">
         <v>0</v>
       </c>
@@ -4074,27 +4377,27 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="53">
         <f t="shared" ref="R8:W8" si="5">(R5+90)/180*1800+600</f>
-        <v>1500</v>
+        <v>1499.8932366869417</v>
       </c>
       <c r="S8" s="53">
         <f t="shared" si="5"/>
-        <v>1500</v>
+        <v>1499.8932353252317</v>
       </c>
       <c r="T8" s="53">
         <f t="shared" si="5"/>
-        <v>1500</v>
+        <v>1499.8932339635226</v>
       </c>
       <c r="U8" s="53">
         <f t="shared" si="5"/>
-        <v>1500</v>
+        <v>1499.8932366869417</v>
       </c>
       <c r="V8" s="53">
         <f t="shared" si="5"/>
-        <v>1500</v>
+        <v>1499.8932353252317</v>
       </c>
       <c r="W8" s="62">
         <f t="shared" si="5"/>
-        <v>1500</v>
+        <v>1499.8932339635226</v>
       </c>
       <c r="Y8" s="79"/>
       <c r="Z8" s="21" t="s">
@@ -4126,7 +4429,7 @@
       </c>
       <c r="AG8" s="80"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -4176,7 +4479,7 @@
       </c>
       <c r="AG9" s="80"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A10" s="21">
         <v>2</v>
       </c>
@@ -4236,7 +4539,7 @@
       </c>
       <c r="AG10" s="80"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -4294,31 +4597,31 @@
       </c>
       <c r="AA11" s="70">
         <f>SIN(Q37*PI()/180)</f>
-        <v>0</v>
+        <v>1.7452406437283512E-2</v>
       </c>
       <c r="AB11" s="70">
         <f>SIN(Q37*PI()/180)</f>
-        <v>0</v>
+        <v>1.7452406437283512E-2</v>
       </c>
       <c r="AC11" s="70">
         <f>SIN(Q37*PI()/180)</f>
-        <v>0</v>
+        <v>1.7452406437283512E-2</v>
       </c>
       <c r="AD11" s="70">
         <f>SIN(Q37*PI()/180)</f>
-        <v>0</v>
+        <v>1.7452406437283512E-2</v>
       </c>
       <c r="AE11" s="70">
         <f>SIN(Q37*PI()/180)</f>
-        <v>0</v>
+        <v>1.7452406437283512E-2</v>
       </c>
       <c r="AF11" s="71">
         <f>SIN(Q37*PI()/180)</f>
-        <v>0</v>
+        <v>1.7452406437283512E-2</v>
       </c>
       <c r="AG11" s="80"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A12" s="21">
         <v>4</v>
       </c>
@@ -4394,31 +4697,31 @@
       </c>
       <c r="AA12" s="70">
         <f>COS(Q37*PI()/180)</f>
-        <v>1</v>
+        <v>0.99984769515639127</v>
       </c>
       <c r="AB12" s="70">
         <f>COS(Q37*PI()/180)</f>
-        <v>1</v>
+        <v>0.99984769515639127</v>
       </c>
       <c r="AC12" s="70">
         <f>COS(Q37*PI()/180)</f>
-        <v>1</v>
+        <v>0.99984769515639127</v>
       </c>
       <c r="AD12" s="70">
         <f>COS(Q37*PI()/180)</f>
-        <v>1</v>
+        <v>0.99984769515639127</v>
       </c>
       <c r="AE12" s="70">
         <f>COS(Q37*PI()/180)</f>
-        <v>1</v>
+        <v>0.99984769515639127</v>
       </c>
       <c r="AF12" s="71">
         <f>COS(Q37*PI()/180)</f>
-        <v>1</v>
+        <v>0.99984769515639127</v>
       </c>
       <c r="AG12" s="80"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A13" s="21">
         <v>5</v>
       </c>
@@ -4472,27 +4775,27 @@
       <c r="Q13" s="62"/>
       <c r="R13" s="40">
         <f t="shared" ref="R13:W13" si="8">AA24</f>
-        <v>47</v>
+        <v>47.013413703129586</v>
       </c>
       <c r="S13" s="40">
         <f t="shared" si="8"/>
-        <v>47</v>
+        <v>47.013413874181488</v>
       </c>
       <c r="T13" s="40">
         <f t="shared" si="8"/>
-        <v>47</v>
+        <v>47.01341404523339</v>
       </c>
       <c r="U13" s="40">
         <f t="shared" si="8"/>
-        <v>47</v>
+        <v>47.013413703129586</v>
       </c>
       <c r="V13" s="40">
         <f t="shared" si="8"/>
-        <v>47</v>
+        <v>47.013413874181488</v>
       </c>
       <c r="W13" s="42">
         <f t="shared" si="8"/>
-        <v>47</v>
+        <v>47.013414045233382</v>
       </c>
       <c r="Y13" s="79"/>
       <c r="Z13" s="21" t="s">
@@ -4500,31 +4803,31 @@
       </c>
       <c r="AA13" s="76">
         <f>AA4*AA10*AA12-AA5*AA10*AA11+AA6*AA9 - AA4</f>
-        <v>0</v>
+        <v>-1.3975148493349749</v>
       </c>
       <c r="AB13" s="76">
         <f t="shared" ref="AB13:AF13" si="9">AB4*AB10*AB12-AB5*AB10*AB11+AB6*AB9 - AB4</f>
-        <v>0</v>
+        <v>-1.4012045612005863E-2</v>
       </c>
       <c r="AC13" s="76">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.3835028010217698</v>
       </c>
       <c r="AD13" s="76">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.3975148493349749</v>
       </c>
       <c r="AE13" s="76">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.4012045612005863E-2</v>
       </c>
       <c r="AF13" s="76">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-1.3835028010217698</v>
       </c>
       <c r="AG13" s="80"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A14" s="22">
         <v>6</v>
       </c>
@@ -4603,32 +4906,32 @@
         <v>42</v>
       </c>
       <c r="AA14" s="76">
-        <f t="shared" ref="AA14:AF14" si="11">(AA4*AA8*AA11+AA4*AA12*AA9*AA7+AA5*AA12*AA8-AA5*AA11*AA9*AA7-AA6*AA10*AA7)-AA5</f>
-        <v>0</v>
+        <f>(AA4*AA8*AA11+AA4*AA12*AA9*AA7+AA5*AA12*AA8-AA5*AA11*AA9*AA7-AA6*AA10*AA7)-AA5</f>
+        <v>0.79067606419906156</v>
       </c>
       <c r="AB14" s="76">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" ref="AA14:AF14" si="11">(AB4*AB8*AB11+AB4*AB12*AB9*AB7+AB5*AB12*AB8-AB5*AB11*AB9*AB7-AB6*AB10*AB7)-AB5</f>
+        <v>1.605621392230083</v>
       </c>
       <c r="AC14" s="76">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.81494563755748572</v>
       </c>
       <c r="AD14" s="76">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-0.79067606419906156</v>
       </c>
       <c r="AE14" s="76">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-1.605621392230083</v>
       </c>
       <c r="AF14" s="82">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-0.81494563755748572</v>
       </c>
       <c r="AG14" s="80"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
       <c r="P15" s="64" t="s">
         <v>61</v>
       </c>
@@ -4687,7 +4990,7 @@
       </c>
       <c r="AG15" s="80"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
       <c r="E16" s="55" t="s">
         <v>3</v>
       </c>
@@ -4733,30 +5036,30 @@
       </c>
       <c r="AA16" s="100">
         <f>I12+AA13+B49+Q32</f>
-        <v>23.500008867730152</v>
+        <v>22.102494018395177</v>
       </c>
       <c r="AB16" s="100">
         <f>J12+AB13+C49+Q32</f>
-        <v>47</v>
+        <v>46.985987954387994</v>
       </c>
       <c r="AC16" s="100">
         <f>K12+AC13+D49+Q32</f>
-        <v>23.500008867730152</v>
+        <v>24.883511668751922</v>
       </c>
       <c r="AD16" s="100">
         <f>L12+AD13+E49+Q32</f>
-        <v>-23.500008867730152</v>
+        <v>-22.102494018395177</v>
       </c>
       <c r="AE16" s="100">
         <f>M12+AE13+F49+Q32</f>
-        <v>-47</v>
+        <v>-46.985987954387994</v>
       </c>
       <c r="AF16" s="100">
         <f>N12+AF13+G49+Q32</f>
-        <v>-23.500008867730152</v>
+        <v>-24.883511668751922</v>
       </c>
     </row>
-    <row r="17" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:33" x14ac:dyDescent="0.45">
       <c r="E17" s="5" t="s">
         <v>59</v>
       </c>
@@ -4803,30 +5106,30 @@
       </c>
       <c r="AA17" s="100">
         <f>I14+AA14+B51+Q34</f>
-        <v>40.703188858080935</v>
+        <v>41.493864922279997</v>
       </c>
       <c r="AB17" s="100">
         <f>J14+AB14+C51+Q34</f>
-        <v>0</v>
+        <v>1.605621392230083</v>
       </c>
       <c r="AC17" s="100">
         <f>K14+AC14+D51+Q34</f>
-        <v>-40.703188858080935</v>
+        <v>-39.888243220523449</v>
       </c>
       <c r="AD17" s="100">
         <f>L14+AD14+E51+Q34</f>
-        <v>-40.703188858080935</v>
+        <v>-41.493864922279997</v>
       </c>
       <c r="AE17" s="100">
         <f>M14+AE14+F51+Q34</f>
-        <v>0</v>
+        <v>-1.605621392230083</v>
       </c>
       <c r="AF17" s="100">
         <f>N14+AF14+G51+Q34</f>
-        <v>40.703188858080935</v>
+        <v>39.888243220523449</v>
       </c>
     </row>
-    <row r="18" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:33" x14ac:dyDescent="0.45">
       <c r="P18" s="2" t="s">
         <v>64</v>
       </c>
@@ -4883,34 +5186,34 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:33" x14ac:dyDescent="0.45">
       <c r="P19" s="64" t="s">
         <v>65</v>
       </c>
       <c r="Q19" s="52"/>
       <c r="R19" s="37">
         <f>R18 - C5*SIN(R4*PI()/180)</f>
-        <v>72</v>
+        <v>72.000001249496052</v>
       </c>
       <c r="S19" s="37">
         <f>S18-C5*SIN(S4*PI()/180)</f>
-        <v>72</v>
+        <v>72.000001249527941</v>
       </c>
       <c r="T19" s="37">
         <f>T18-C5*SIN(T4*PI()/180)</f>
-        <v>72</v>
+        <v>72.000001249559801</v>
       </c>
       <c r="U19" s="37">
         <f>U18-C5*SIN(U4*PI()/180)</f>
-        <v>72</v>
+        <v>72.000001249496052</v>
       </c>
       <c r="V19" s="37">
         <f>V18-C5*SIN(V4*PI()/180)</f>
-        <v>72</v>
+        <v>72.000001249527941</v>
       </c>
       <c r="W19" s="38">
         <f>W18-C5*SIN(W4*PI()/180)</f>
-        <v>72</v>
+        <v>72.000001249559801</v>
       </c>
       <c r="Y19" s="79"/>
       <c r="Z19" s="8" t="s">
@@ -4924,7 +5227,7 @@
       <c r="AF19" s="12"/>
       <c r="AG19" s="80"/>
     </row>
-    <row r="20" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:33" x14ac:dyDescent="0.45">
       <c r="P20" s="2" t="s">
         <v>66</v>
       </c>
@@ -4977,34 +5280,34 @@
       </c>
       <c r="AG20" s="80"/>
     </row>
-    <row r="21" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:33" x14ac:dyDescent="0.45">
       <c r="P21" s="64" t="s">
         <v>67</v>
       </c>
       <c r="Q21" s="52"/>
       <c r="R21" s="37">
         <f>C5*COS(R4*PI()/180)+R20</f>
-        <v>47</v>
+        <v>46.999999999999979</v>
       </c>
       <c r="S21" s="37">
         <f>C5*COS(-S4*PI()/180)+S20</f>
-        <v>47</v>
+        <v>46.999999999999979</v>
       </c>
       <c r="T21" s="37">
         <f>C5*COS(-T4*PI()/180)+T20</f>
-        <v>47</v>
+        <v>46.999999999999979</v>
       </c>
       <c r="U21" s="37">
         <f>-C5*COS(U4*PI()/180)+U20</f>
-        <v>-47</v>
+        <v>-46.999999999999979</v>
       </c>
       <c r="V21" s="37">
         <f>-C5*COS(V4*PI()/180)+V20</f>
-        <v>-47</v>
+        <v>-46.999999999999979</v>
       </c>
       <c r="W21" s="38">
         <f>-C5*COS(W4*PI()/180)+W20</f>
-        <v>-47</v>
+        <v>-46.999999999999979</v>
       </c>
       <c r="Y21" s="79"/>
       <c r="Z21" s="30" t="s">
@@ -5012,58 +5315,58 @@
       </c>
       <c r="AA21" s="78">
         <f>AA16*COS(30/180*PI())-AA17*SIN(30/180*PI())</f>
-        <v>1.0239573430936844E-5</v>
+        <v>-1.6056111542161702</v>
       </c>
       <c r="AB21" s="78">
         <f>AB16*COS(90/180*PI())-AB17*SIN(90/180*PI())</f>
-        <v>2.879098869035257E-15</v>
+        <v>-1.6056213922300802</v>
       </c>
       <c r="AC21" s="78">
         <f>AC16*COS(150/180*PI())-AC17*SIN(150/180*PI())</f>
-        <v>-1.0239573430936844E-5</v>
+        <v>-1.6056316302439555</v>
       </c>
       <c r="AD21" s="78">
         <f>AD16*COS(210/180*PI())-AD17*SIN(210/180*PI())</f>
-        <v>1.0239573420278703E-5</v>
+        <v>-1.6056111542161808</v>
       </c>
       <c r="AE21" s="78">
         <f>AE16*COS(270/180*PI())-AE17*SIN(270/180*PI())</f>
-        <v>8.6372966071057711E-15</v>
+        <v>-1.6056213922300744</v>
       </c>
       <c r="AF21" s="78">
         <f>AF16*COS(330/180*PI())-AF17*SIN(330/180*PI())</f>
-        <v>-1.0239573402515134E-5</v>
+        <v>-1.6056316302439235</v>
       </c>
       <c r="AG21" s="80"/>
     </row>
-    <row r="22" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:33" x14ac:dyDescent="0.45">
       <c r="P22" s="65" t="s">
         <v>68</v>
       </c>
       <c r="Q22" s="52"/>
       <c r="R22" s="37">
         <f t="shared" ref="R22:W22" si="15">R19</f>
-        <v>72</v>
+        <v>72.000001249496052</v>
       </c>
       <c r="S22" s="37">
         <f t="shared" si="15"/>
-        <v>72</v>
+        <v>72.000001249527941</v>
       </c>
       <c r="T22" s="37">
         <f t="shared" si="15"/>
-        <v>72</v>
+        <v>72.000001249559801</v>
       </c>
       <c r="U22" s="37">
         <f t="shared" si="15"/>
-        <v>72</v>
+        <v>72.000001249496052</v>
       </c>
       <c r="V22" s="37">
         <f t="shared" si="15"/>
-        <v>72</v>
+        <v>72.000001249527941</v>
       </c>
       <c r="W22" s="38">
         <f t="shared" si="15"/>
-        <v>72</v>
+        <v>72.000001249559801</v>
       </c>
       <c r="Y22" s="79"/>
       <c r="Z22" s="30" t="s">
@@ -5071,58 +5374,58 @@
       </c>
       <c r="AA22" s="78">
         <f>AA16*SIN(30/180*PI())+AA17*COS(30/180*PI())</f>
-        <v>46.999999999998884</v>
+        <v>46.985988133092079</v>
       </c>
       <c r="AB22" s="78">
         <f>AB16*SIN(90/180*PI())+AB17*COS(90/180*PI())</f>
-        <v>47</v>
+        <v>46.985987954387994</v>
       </c>
       <c r="AC22" s="78">
         <f>AC16*SIN(150/180*PI())+AC17*COS(150/180*PI())</f>
-        <v>46.999999999998884</v>
+        <v>46.985987775681679</v>
       </c>
       <c r="AD22" s="78">
         <f>AD16*SIN(210/180*PI())+AD17*COS(210/180*PI())</f>
-        <v>46.999999999998884</v>
+        <v>46.985988133092079</v>
       </c>
       <c r="AE22" s="78">
         <f>AE16*SIN(270/180*PI())+AE17*COS(270/180*PI())</f>
-        <v>47</v>
+        <v>46.985987954387994</v>
       </c>
       <c r="AF22" s="78">
         <f>AF16*SIN(330/180*PI())+AF17*COS(330/180*PI())</f>
-        <v>46.999999999998884</v>
+        <v>46.985987775681679</v>
       </c>
       <c r="AG22" s="80"/>
     </row>
-    <row r="23" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:33" x14ac:dyDescent="0.45">
       <c r="P23" s="64" t="s">
         <v>69</v>
       </c>
       <c r="Q23" s="52"/>
       <c r="R23" s="37">
         <f>R19-C6*COS(R5*PI()/180)</f>
-        <v>0</v>
+        <v>2.4994710372538975E-6</v>
       </c>
       <c r="S23" s="37">
         <f>S19-C6*COS(S5*PI()/180)</f>
-        <v>0</v>
+        <v>2.4995348013590046E-6</v>
       </c>
       <c r="T23" s="37">
         <f>T19-C6*COS(T5*PI()/180)</f>
-        <v>0</v>
+        <v>2.499598551253257E-6</v>
       </c>
       <c r="U23" s="37">
         <f>U19-C6*COS(U5*PI()/180)</f>
-        <v>0</v>
+        <v>2.4994710372538975E-6</v>
       </c>
       <c r="V23" s="37">
         <f>V19-C6*COS(V5*PI()/180)</f>
-        <v>0</v>
+        <v>2.4995348013590046E-6</v>
       </c>
       <c r="W23" s="38">
         <f>W19-C6*COS(W5*PI()/180)</f>
-        <v>0</v>
+        <v>2.499598551253257E-6</v>
       </c>
       <c r="Y23" s="79"/>
       <c r="Z23" s="30" t="s">
@@ -5154,34 +5457,34 @@
       </c>
       <c r="AG23" s="80"/>
     </row>
-    <row r="24" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:33" x14ac:dyDescent="0.45">
       <c r="P24" s="65" t="s">
         <v>70</v>
       </c>
       <c r="Q24" s="52"/>
       <c r="R24" s="37">
         <f t="shared" ref="R24:W24" si="17">R21</f>
-        <v>47</v>
+        <v>46.999999999999979</v>
       </c>
       <c r="S24" s="37">
         <f t="shared" si="17"/>
-        <v>47</v>
+        <v>46.999999999999979</v>
       </c>
       <c r="T24" s="37">
         <f t="shared" si="17"/>
-        <v>47</v>
+        <v>46.999999999999979</v>
       </c>
       <c r="U24" s="37">
         <f t="shared" si="17"/>
-        <v>-47</v>
+        <v>-46.999999999999979</v>
       </c>
       <c r="V24" s="37">
         <f t="shared" si="17"/>
-        <v>-47</v>
+        <v>-46.999999999999979</v>
       </c>
       <c r="W24" s="38">
         <f t="shared" si="17"/>
-        <v>-47</v>
+        <v>-46.999999999999979</v>
       </c>
       <c r="Y24" s="79"/>
       <c r="Z24" s="21" t="s">
@@ -5189,58 +5492,58 @@
       </c>
       <c r="AA24" s="70">
         <f>SQRT(AA21*AA21+AA22*AA22)</f>
-        <v>47</v>
+        <v>47.013413703129586</v>
       </c>
       <c r="AB24" s="70">
         <f t="shared" ref="AB24:AF24" si="18">SQRT(AB21*AB21+AB22*AB22)</f>
-        <v>47</v>
+        <v>47.013413874181488</v>
       </c>
       <c r="AC24" s="70">
         <f t="shared" si="18"/>
-        <v>47</v>
+        <v>47.01341404523339</v>
       </c>
       <c r="AD24" s="70">
         <f t="shared" si="18"/>
-        <v>47</v>
+        <v>47.013413703129586</v>
       </c>
       <c r="AE24" s="70">
         <f t="shared" si="18"/>
-        <v>47</v>
+        <v>47.013413874181488</v>
       </c>
       <c r="AF24" s="70">
         <f t="shared" si="18"/>
-        <v>47</v>
+        <v>47.013414045233382</v>
       </c>
       <c r="AG24" s="80"/>
     </row>
-    <row r="25" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:33" x14ac:dyDescent="0.45">
       <c r="P25" s="67" t="s">
         <v>71</v>
       </c>
       <c r="Q25" s="62"/>
       <c r="R25" s="40">
         <f>R24-SIN(R5*PI()/180)*C6</f>
-        <v>47</v>
+        <v>47.013416273521436</v>
       </c>
       <c r="S25" s="40">
         <f>S24-SIN(S5*PI()/180)*C6</f>
-        <v>47</v>
+        <v>47.013416444638935</v>
       </c>
       <c r="T25" s="40">
         <f>T24-SIN(T5*PI()/180)*C6</f>
-        <v>47</v>
+        <v>47.013416615756341</v>
       </c>
       <c r="U25" s="40">
         <f>U24+SIN(U5*PI()/180)*C6</f>
-        <v>-47</v>
+        <v>-47.013416273521436</v>
       </c>
       <c r="V25" s="40">
         <f>V24+SIN(V5*PI()/180)*C6</f>
-        <v>-47</v>
+        <v>-47.013416444638935</v>
       </c>
       <c r="W25" s="42">
         <f>W24+SIN(W5*PI()/180)*C6</f>
-        <v>-47</v>
+        <v>-47.013416615756341</v>
       </c>
       <c r="Y25" s="79"/>
       <c r="Z25" s="21" t="s">
@@ -5248,31 +5551,31 @@
       </c>
       <c r="AA25" s="70">
         <f>SQRT((AA24-C4)*(AA24-C4)+AA23*AA23)</f>
-        <v>80.05623023850174</v>
+        <v>80.062095520580158</v>
       </c>
       <c r="AB25" s="70">
         <f>SQRT((AB24-C4)*(AB24-C4)+AB23*AB23)</f>
-        <v>80.05623023850174</v>
+        <v>80.062095595385998</v>
       </c>
       <c r="AC25" s="70">
         <f>SQRT((AC24-C4)*(AC24-C4)+AC23*AC23)</f>
-        <v>80.05623023850174</v>
+        <v>80.062095670191809</v>
       </c>
       <c r="AD25" s="70">
         <f>SQRT((AD24-C4)*(AD24-C4)+AD23*AD23)</f>
-        <v>80.05623023850174</v>
+        <v>80.062095520580158</v>
       </c>
       <c r="AE25" s="70">
         <f>SQRT((AE24-C4)*(AE24-C4)+AE23*AE23)</f>
-        <v>80.05623023850174</v>
+        <v>80.062095595385998</v>
       </c>
       <c r="AF25" s="71">
         <f>SQRT((AF24-C4)*(AF24-C4)+AF23*AF23)</f>
-        <v>80.05623023850174</v>
+        <v>80.062095670191809</v>
       </c>
       <c r="AG25" s="80"/>
     </row>
-    <row r="26" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:33" x14ac:dyDescent="0.45">
       <c r="P26" s="2"/>
       <c r="Q26" s="52"/>
       <c r="R26" s="51"/>
@@ -5287,58 +5590,58 @@
       </c>
       <c r="AA26" s="70">
         <f>ATAN((AA24-C4)/AA23)</f>
-        <v>0.45247488956206683</v>
+        <v>0.45262557077228138</v>
       </c>
       <c r="AB26" s="70">
         <f>ATAN((AB24-C4)/AB23)</f>
-        <v>0.45247488956206683</v>
+        <v>0.45262557269363141</v>
       </c>
       <c r="AC26" s="70">
         <f>ATAN((AC24-C4)/AC23)</f>
-        <v>0.45247488956206683</v>
+        <v>0.45262557461498149</v>
       </c>
       <c r="AD26" s="70">
         <f>ATAN((AD24-C4)/AD23)</f>
-        <v>0.45247488956206683</v>
+        <v>0.45262557077228138</v>
       </c>
       <c r="AE26" s="70">
         <f>ATAN((AE24-C4)/AE23)</f>
-        <v>0.45247488956206683</v>
+        <v>0.45262557269363141</v>
       </c>
       <c r="AF26" s="71">
         <f>ATAN((AF24-C4)/AF23)</f>
-        <v>0.45247488956206683</v>
+        <v>0.45262557461498143</v>
       </c>
       <c r="AG26" s="80"/>
     </row>
-    <row r="27" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:33" x14ac:dyDescent="0.45">
       <c r="P27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="Q27" s="61"/>
       <c r="R27" s="34">
         <f>AA16+I2</f>
-        <v>46.000008867730152</v>
+        <v>44.602494018395177</v>
       </c>
       <c r="S27" s="34">
         <f>AB16+I3</f>
-        <v>92</v>
+        <v>91.985987954387994</v>
       </c>
       <c r="T27" s="34">
         <f>AC16+I4</f>
-        <v>46.000008867730152</v>
+        <v>47.383511668751922</v>
       </c>
       <c r="U27" s="34">
         <f>AD16+I5</f>
-        <v>-46.000008867730152</v>
+        <v>-44.602494018395177</v>
       </c>
       <c r="V27" s="34">
         <f>AE16+I6</f>
-        <v>-92</v>
+        <v>-91.985987954387994</v>
       </c>
       <c r="W27" s="35">
         <f>AF16+I7</f>
-        <v>-46.000008867730152</v>
+        <v>-47.383511668751922</v>
       </c>
       <c r="Y27" s="79"/>
       <c r="Z27" s="21" t="s">
@@ -5346,31 +5649,31 @@
       </c>
       <c r="AA27" s="70">
         <f>ACOS((C6*C6-C5*C5-AA25*AA25)/(-2*AA25*C5))</f>
-        <v>1.1183214372328298</v>
+        <v>1.1181707203227278</v>
       </c>
       <c r="AB27" s="70">
         <f>ACOS((C6*C6-C5*C5-AB25*AB25)/(-2*AB25*C5))</f>
-        <v>1.1183214372328298</v>
+        <v>1.1181707184004668</v>
       </c>
       <c r="AC27" s="70">
         <f>ACOS((C6*C6-C5*C5-AC25*AC25)/(-2*AC25*C5))</f>
-        <v>1.1183214372328298</v>
+        <v>1.1181707164782066</v>
       </c>
       <c r="AD27" s="70">
         <f>ACOS((C6*C6-C5*C5-AD25*AD25)/(-2*AD25*C5))</f>
-        <v>1.1183214372328298</v>
+        <v>1.1181707203227278</v>
       </c>
       <c r="AE27" s="70">
         <f>ACOS((C6*C6-C5*C5-AE25*AE25)/(-2*AE25*C5))</f>
-        <v>1.1183214372328298</v>
+        <v>1.1181707184004668</v>
       </c>
       <c r="AF27" s="71">
         <f>ACOS((C6*C6-C5*C5-AF25*AF25)/(-2*AF25*C5))</f>
-        <v>1.1183214372328298</v>
+        <v>1.1181707164782066</v>
       </c>
       <c r="AG27" s="80"/>
     </row>
-    <row r="28" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:33" x14ac:dyDescent="0.45">
       <c r="P28" s="2" t="s">
         <v>27</v>
       </c>
@@ -5405,58 +5708,58 @@
       </c>
       <c r="AA28" s="70">
         <f>ACOS((AA25*AA25-C6*C6-C5*C5)/(-2*C5*C6))</f>
-        <v>1.5707963267948966</v>
+        <v>1.5709826639282172</v>
       </c>
       <c r="AB28" s="70">
         <f>ACOS((AB25*AB25-C6*C6-C5*C5)/(-2*C5*C6))</f>
-        <v>1.5707963267948966</v>
+        <v>1.5709826663048492</v>
       </c>
       <c r="AC28" s="70">
         <f>ACOS((AC25*AC25-C6*C6-C5*C5)/(-2*C5*C6))</f>
-        <v>1.5707963267948966</v>
+        <v>1.5709826686814801</v>
       </c>
       <c r="AD28" s="70">
         <f>ACOS((AD25*AD25-C6*C6-C5*C5)/(-2*C5*C6))</f>
-        <v>1.5707963267948966</v>
+        <v>1.5709826639282172</v>
       </c>
       <c r="AE28" s="70">
         <f>ACOS((AE25*AE25-C6*C6-C5*C5)/(-2*C5*C6))</f>
-        <v>1.5707963267948966</v>
+        <v>1.5709826663048492</v>
       </c>
       <c r="AF28" s="71">
         <f>ACOS((AF25*AF25-C6*C6-C5*C5)/(-2*C5*C6))</f>
-        <v>1.5707963267948966</v>
+        <v>1.5709826686814801</v>
       </c>
       <c r="AG28" s="80"/>
     </row>
-    <row r="29" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:33" x14ac:dyDescent="0.45">
       <c r="P29" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Q29" s="62"/>
       <c r="R29" s="40">
         <f>AA17+J2</f>
-        <v>79.674332028380675</v>
+        <v>80.465008092579737</v>
       </c>
       <c r="S29" s="40">
         <f>AB17+J3</f>
-        <v>0</v>
+        <v>1.605621392230083</v>
       </c>
       <c r="T29" s="40">
         <f>AC17+J4</f>
-        <v>-79.674332028380675</v>
+        <v>-78.85938639082319</v>
       </c>
       <c r="U29" s="40">
         <f>AD17+J5</f>
-        <v>-79.674332028380675</v>
+        <v>-80.465008092579737</v>
       </c>
       <c r="V29" s="40">
         <f>AE17+J6</f>
-        <v>0</v>
+        <v>-1.605621392230083</v>
       </c>
       <c r="W29" s="42">
         <f>AF17+J7</f>
-        <v>79.674332028380675</v>
+        <v>78.85938639082319</v>
       </c>
       <c r="Y29" s="79"/>
       <c r="Z29" s="21" t="s">
@@ -5464,31 +5767,31 @@
       </c>
       <c r="AA29" s="76">
         <f t="shared" ref="AA29:AF29" si="20">90-AA28*180/PI()</f>
-        <v>0</v>
+        <v>-1.067633130584511E-2</v>
       </c>
       <c r="AB29" s="76">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1.0676467476827156E-2</v>
       </c>
       <c r="AC29" s="76">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1.0676603647738148E-2</v>
       </c>
       <c r="AD29" s="76">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1.067633130584511E-2</v>
       </c>
       <c r="AE29" s="76">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1.0676467476827156E-2</v>
       </c>
       <c r="AF29" s="82">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-1.0676603647738148E-2</v>
       </c>
       <c r="AG29" s="80"/>
     </row>
-    <row r="30" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:33" x14ac:dyDescent="0.45">
       <c r="R30" s="68">
         <v>10</v>
       </c>
@@ -5498,31 +5801,31 @@
       </c>
       <c r="AA30" s="76">
         <f t="shared" ref="AA30:AF30" si="21">(AA26+AA27)*180/PI()-90</f>
-        <v>0</v>
+        <v>-2.0454528737445798E-6</v>
       </c>
       <c r="AB30" s="76">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-2.0455050702139488E-6</v>
       </c>
       <c r="AC30" s="76">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-2.0455572240507536E-6</v>
       </c>
       <c r="AD30" s="76">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-2.0454528737445798E-6</v>
       </c>
       <c r="AE30" s="76">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-2.0455050702139488E-6</v>
       </c>
       <c r="AF30" s="82">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-2.0455572240507536E-6</v>
       </c>
       <c r="AG30" s="80"/>
     </row>
-    <row r="31" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:33" x14ac:dyDescent="0.45">
       <c r="P31" s="8" t="s">
         <v>18</v>
       </c>
@@ -5536,31 +5839,31 @@
       </c>
       <c r="AA31" s="77">
         <f>90-ATAN2(AA21,AA22)*180/PI()</f>
-        <v>1.2482645558975491E-5</v>
+        <v>-1.9571570786621635</v>
       </c>
       <c r="AB31" s="77">
         <f t="shared" ref="AB31:AF31" si="22">90-ATAN2(AB21,AB22)*180/PI()</f>
-        <v>0</v>
+        <v>-1.9571695560048994</v>
       </c>
       <c r="AC31" s="77">
         <f t="shared" si="22"/>
-        <v>-1.2482645558975491E-5</v>
+        <v>-1.9571820333475642</v>
       </c>
       <c r="AD31" s="77">
         <f t="shared" si="22"/>
-        <v>1.2482645530553782E-5</v>
+        <v>-1.9571570786621635</v>
       </c>
       <c r="AE31" s="77">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-1.957169556004871</v>
       </c>
       <c r="AF31" s="77">
         <f t="shared" si="22"/>
-        <v>-1.2482645544764637E-5</v>
+        <v>-1.9571820333475358</v>
       </c>
       <c r="AG31" s="80"/>
     </row>
-    <row r="32" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:33" x14ac:dyDescent="0.45">
       <c r="P32" s="20" t="s">
         <v>19</v>
       </c>
@@ -5581,7 +5884,7 @@
       <c r="AF32" s="80"/>
       <c r="AG32" s="80"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
       <c r="P33" s="29" t="s">
         <v>20</v>
       </c>
@@ -5593,7 +5896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
       <c r="P34" s="30" t="s">
         <v>21</v>
       </c>
@@ -5605,14 +5908,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
       <c r="P35" s="21"/>
       <c r="Q35" s="69"/>
       <c r="R35" s="68">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
       <c r="P36" s="30" t="s">
         <v>22</v>
       </c>
@@ -5624,19 +5927,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
       <c r="P37" s="30" t="s">
         <v>23</v>
       </c>
       <c r="Q37" s="69">
         <f>R37-15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="68">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
       <c r="P38" s="31" t="s">
         <v>24</v>
       </c>
@@ -5648,7 +5951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A39" s="8" t="s">
         <v>73</v>
       </c>
@@ -5665,7 +5968,7 @@
       <c r="K39" s="13"/>
       <c r="L39" s="14"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A40" s="107" t="s">
         <v>74</v>
       </c>
@@ -5709,7 +6012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A41" s="101" t="s">
         <v>75</v>
       </c>
@@ -5747,7 +6050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A42" s="101" t="s">
         <v>76</v>
       </c>
@@ -5787,7 +6090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A43" s="56" t="s">
         <v>81</v>
       </c>
@@ -5824,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A46" s="55" t="s">
         <v>72</v>
       </c>
@@ -5835,7 +6138,7 @@
       <c r="F46" s="57"/>
       <c r="G46" s="58"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A47" s="88" t="s">
         <v>94</v>
       </c>
@@ -5858,7 +6161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A48" s="88" t="s">
         <v>9</v>
       </c>
@@ -5881,7 +6184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="21" t="s">
         <v>77</v>
       </c>
@@ -5910,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="21" t="s">
         <v>78</v>
       </c>
@@ -5939,7 +6242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="21" t="s">
         <v>79</v>
       </c>
@@ -5968,7 +6271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="22" t="s">
         <v>80</v>
       </c>
@@ -5997,7 +6300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="8" t="s">
         <v>98</v>
       </c>
@@ -6010,7 +6313,7 @@
       <c r="H55" s="13"/>
       <c r="I55" s="14"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="88" t="s">
         <v>100</v>
       </c>
@@ -6037,7 +6340,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="32" t="s">
         <v>101</v>
       </c>
@@ -6065,7 +6368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="30">
         <v>2</v>
       </c>
@@ -6093,7 +6396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="30">
         <v>3</v>
       </c>
@@ -6121,7 +6424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="30">
         <v>4</v>
       </c>
@@ -6149,7 +6452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="30">
         <v>5</v>
       </c>
@@ -6177,7 +6480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="31">
         <v>6</v>
       </c>
@@ -6205,15 +6508,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
     </row>
-    <row r="84" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="24:24" x14ac:dyDescent="0.45">
       <c r="X84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="24:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="24:24" x14ac:dyDescent="0.45">
       <c r="X85" t="s">
         <v>84</v>
       </c>
@@ -6393,7 +6696,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6406,7 +6709,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
